--- a/jpcore-r4/feature/swg2-add-microbiology/ValueSet-jp-microbiology-anti-microbial-drug-vs.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/ValueSet-jp-microbiology-anti-microbial-drug-vs.xlsx
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>厚生労働省院内感染対策サーベイランス事業(https://janis.mhlw.go.jp/)</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -114,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Microbiology_AntiMicrobialDrug_CS</t>
+    <t>urn:oid:1.2.392.100495.10.3.100.5.11.5.0</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/feature/swg2-add-microbiology/ValueSet-jp-microbiology-anti-microbial-drug-vs.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/ValueSet-jp-microbiology-anti-microbial-drug-vs.xlsx
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>微生物学検査 抗微生物学的薬剤値セット</t>
+    <t>微生物学検査 抗微生物学的薬剤値セット 
+本コードは厚生労働省院内感染対策サーベイランス事業(https://janis.mhlw.go.jp/)で作成されているマスタを編集・加工して利用している</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -93,7 +94,8 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>厚生労働省院内感染対策サーベイランス事業(https://janis.mhlw.go.jp/)</t>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG  
+厚生労働省院内感染対策サーベイランス事業(https://janis.mhlw.go.jp/)</t>
   </si>
   <si>
     <t>Immutable</t>
